--- a/Contoso - Contatos.xlsx
+++ b/Contoso - Contatos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igorp\Desktop\VSCode\Projetos\Projeto - Automações de Processos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igorp\Desktop\VSCode\Projetos\Projeto - Automações de Processos\process-automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCA1F4C-415D-4A70-97C9-BDD4DA658E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5253712-9148-448F-BE3A-D40543CDAA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,217 +39,217 @@
     <t xml:space="preserve">Loja Contoso Seattle No.1 </t>
   </si>
   <si>
-    <t>anubislofi+1@gmail.com</t>
-  </si>
-  <si>
     <t>João</t>
   </si>
   <si>
     <t xml:space="preserve">Loja Contoso Seattle No.2 </t>
   </si>
   <si>
-    <t>anubislofi+2@gmail.com</t>
-  </si>
-  <si>
     <t>Renata</t>
   </si>
   <si>
     <t xml:space="preserve">Loja Contoso Kennewick </t>
   </si>
   <si>
-    <t>anubislofi+3@gmail.com</t>
-  </si>
-  <si>
     <t>Pedro</t>
   </si>
   <si>
     <t xml:space="preserve">Loja Contoso Bellevue </t>
   </si>
   <si>
-    <t>anubislofi+4@gmail.com</t>
-  </si>
-  <si>
     <t>Lucas</t>
   </si>
   <si>
     <t xml:space="preserve">Loja Contoso Redmond </t>
   </si>
   <si>
-    <t>anubislofi+5@gmail.com</t>
-  </si>
-  <si>
     <t>Felipe</t>
   </si>
   <si>
     <t xml:space="preserve">Loja Contoso Yakima </t>
   </si>
   <si>
-    <t>anubislofi+6@gmail.com</t>
-  </si>
-  <si>
     <t>Ivan</t>
   </si>
   <si>
     <t xml:space="preserve">Loja Contoso Granger </t>
   </si>
   <si>
-    <t>anubislofi+7@gmail.com</t>
-  </si>
-  <si>
     <t>Igor</t>
   </si>
   <si>
     <t xml:space="preserve">Loja Contoso Sunnyside </t>
   </si>
   <si>
-    <t>anubislofi+8@gmail.com</t>
-  </si>
-  <si>
     <t>Lilian</t>
   </si>
   <si>
     <t xml:space="preserve">Loja Contoso Toppenish </t>
   </si>
   <si>
-    <t>anubislofi+9@gmail.com</t>
-  </si>
-  <si>
     <t>Cássio</t>
   </si>
   <si>
     <t xml:space="preserve">Loja Contoso Wapato </t>
   </si>
   <si>
-    <t>anubislofi+10@gmail.com</t>
-  </si>
-  <si>
     <t>Daniel</t>
   </si>
   <si>
     <t xml:space="preserve">Loja Contoso Cle Elum </t>
   </si>
   <si>
-    <t>anubislofi+11@gmail.com</t>
-  </si>
-  <si>
     <t>Livia</t>
   </si>
   <si>
     <t xml:space="preserve">Loja Contoso Snoqualmie </t>
   </si>
   <si>
-    <t>anubislofi+12@gmail.com</t>
-  </si>
-  <si>
     <t>Raissa</t>
   </si>
   <si>
     <t xml:space="preserve">Loja Contoso Fall City </t>
   </si>
   <si>
-    <t>anubislofi+13@gmail.com</t>
-  </si>
-  <si>
     <t>Marina</t>
   </si>
   <si>
     <t xml:space="preserve">Loja Contoso Renton </t>
   </si>
   <si>
-    <t>anubislofi+14@gmail.com</t>
-  </si>
-  <si>
     <t>Joana</t>
   </si>
   <si>
     <t xml:space="preserve">Loja Contoso Everett </t>
   </si>
   <si>
-    <t>anubislofi+15@gmail.com</t>
-  </si>
-  <si>
     <t>Rania</t>
   </si>
   <si>
     <t xml:space="preserve">Loja Contoso Spokane </t>
   </si>
   <si>
-    <t>anubislofi+16@gmail.com</t>
-  </si>
-  <si>
     <t>Daiane</t>
   </si>
   <si>
     <t xml:space="preserve">Loja Contoso Veradale </t>
   </si>
   <si>
-    <t>anubislofi+17@gmail.com</t>
-  </si>
-  <si>
     <t>Marco Tulio</t>
   </si>
   <si>
     <t xml:space="preserve">Loja Contoso Englewood </t>
   </si>
   <si>
-    <t>anubislofi+18@gmail.com</t>
-  </si>
-  <si>
     <t>Ana</t>
   </si>
   <si>
     <t xml:space="preserve">Loja Contoso Wheat Ridge </t>
   </si>
   <si>
-    <t>anubislofi+19@gmail.com</t>
-  </si>
-  <si>
     <t>Cezar</t>
   </si>
   <si>
     <t xml:space="preserve">Loja Contoso Westminster </t>
   </si>
   <si>
-    <t>anubislofi+20@gmail.com</t>
-  </si>
-  <si>
     <t>Maria</t>
   </si>
   <si>
     <t xml:space="preserve">Loja Contoso Grand Junction </t>
   </si>
   <si>
-    <t>anubislofi+21@gmail.com</t>
-  </si>
-  <si>
     <t>Jéssica</t>
   </si>
   <si>
     <t xml:space="preserve">Loja Contoso New Castle </t>
   </si>
   <si>
-    <t>anubislofi+22@gmail.com</t>
-  </si>
-  <si>
     <t>Vitória</t>
   </si>
   <si>
     <t xml:space="preserve">Loja Contoso Greeley  No.1 </t>
   </si>
   <si>
-    <t>anubislofi+23@gmail.com</t>
-  </si>
-  <si>
     <t>Amanda</t>
   </si>
   <si>
     <t>Diretoria</t>
   </si>
   <si>
-    <t>anubislofi+24@gmail.com</t>
-  </si>
-  <si>
     <t>Matheus</t>
+  </si>
+  <si>
+    <t>youremail+1@gmail.com</t>
+  </si>
+  <si>
+    <t>youremail+2@gmail.com</t>
+  </si>
+  <si>
+    <t>youremail+3@gmail.com</t>
+  </si>
+  <si>
+    <t>youremail+4@gmail.com</t>
+  </si>
+  <si>
+    <t>youremail+5@gmail.com</t>
+  </si>
+  <si>
+    <t>youremail+6@gmail.com</t>
+  </si>
+  <si>
+    <t>youremail+7@gmail.com</t>
+  </si>
+  <si>
+    <t>youremail+8@gmail.com</t>
+  </si>
+  <si>
+    <t>youremail+9@gmail.com</t>
+  </si>
+  <si>
+    <t>youremail+10@gmail.com</t>
+  </si>
+  <si>
+    <t>youremail+11@gmail.com</t>
+  </si>
+  <si>
+    <t>youremail+12@gmail.com</t>
+  </si>
+  <si>
+    <t>youremail+13@gmail.com</t>
+  </si>
+  <si>
+    <t>youremail+14@gmail.com</t>
+  </si>
+  <si>
+    <t>youremail+15@gmail.com</t>
+  </si>
+  <si>
+    <t>youremail+16@gmail.com</t>
+  </si>
+  <si>
+    <t>youremail+17@gmail.com</t>
+  </si>
+  <si>
+    <t>youremail+18@gmail.com</t>
+  </si>
+  <si>
+    <t>youremail+19@gmail.com</t>
+  </si>
+  <si>
+    <t>youremail+20@gmail.com</t>
+  </si>
+  <si>
+    <t>youremail+21@gmail.com</t>
+  </si>
+  <si>
+    <t>youremail+22@gmail.com</t>
+  </si>
+  <si>
+    <t>youremail+23@gmail.com</t>
+  </si>
+  <si>
+    <t>youremail+24@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -595,263 +595,263 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
